--- a/bots/crawl_ch/output/clothes_2022-08-29.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,146 +531,146 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>6866452</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 30% Aktion 13.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6866452</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>3305484008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Naturaline Damen Slip weiss M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -680,12 +680,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -694,55 +694,75 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss M 30% Aktion 5.55 Schweizer Franken statt 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>6866483</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -750,12 +770,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 30% Aktion 5.55 Schweizer Franken statt 7.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -808,7 +828,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -859,7 +879,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -912,7 +932,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -965,7 +985,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1056,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1127,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1198,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1269,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1322,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1375,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1426,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1477,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1530,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1581,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1632,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1683,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1734,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1785,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1836,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1889,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1940,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1991,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2042,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2093,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2144,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2195,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2246,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2297,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2348,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2401,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2454,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2505,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2556,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2609,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2662,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2715,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2768,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2819,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2870,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2923,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2974,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3025,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3076,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3127,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3178,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3229,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3280,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3333,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3384,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3435,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
@@ -3466,24 +3486,24 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6031467017</t>
+          <t>6031467016</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3512,35 +3532,37 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M - Online kein Bestand 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6031467016</t>
+          <t>6031467019</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xl/p/6031467019</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3563,37 +3585,35 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XL 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6031467019</t>
+          <t>3890690001</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz XL</t>
+          <t>Portemonnaie schwarz quer klein</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xl/p/6031467019</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3602,7 +3622,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3611,87 +3631,105 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz XL 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
+          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6031467008</t>
+          <t>6866398</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss L</t>
+          <t>Selenacare Menstruationsunterwäsche S</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-l/p/6031467008</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>17.45</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss L - Online kein Bestand 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>5796044002</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Taschenschirm fuchsia gepunktet</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -3706,7 +3744,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -3715,34 +3753,34 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S - Online kein Bestand 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
+          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6031467009</t>
+          <t>5796044001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
+          <t>Taschenschirm sand gepunktet</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -3757,7 +3795,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3766,40 +3804,42 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
+          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6031467010</t>
+          <t>5796044003</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
+          <t>Taschenschirm türkis gepunktet</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3808,7 +3848,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3817,44 +3857,48 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL - Online kein Bestand 30% Aktion 17.45 Schweizer Franken statt 24.95 Schweizer Franken</t>
+          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3890690001</t>
+          <t>6866484</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein</t>
+          <t>Tena Silhouette waschbarer Inko-Slip L</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-l/p/6866484</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3862,391 +3906,39 @@
           <t>34.95</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip L 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>6866398</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Selenacare</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>2022-08-29 07:10:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>5796044002</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Taschenschirm fuchsia gepunktet</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>2022-08-29 07:10:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>5796044001</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Taschenschirm sand gepunktet</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>2022-08-29 07:10:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>5796044003</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Taschenschirm türkis gepunktet</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>2022-08-29 07:10:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>6866484</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Tena Silhouette waschbarer Inko-Slip L</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-l/p/6866484</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Tena</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Tena Silhouette waschbarer Inko-Slip L 34.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>2022-08-29 07:10:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>6866483</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Tena</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>2022-08-29 07:10:22</t>
+          <t>2022-08-29 20:59:43</t>
         </is>
       </c>
     </row>
